--- a/UGDG/Behavioral_Analysis/covariates/Composite_Substance.xlsx
+++ b/UGDG/Behavioral_Analysis/covariates/Composite_Substance.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Composite_Substance</t>
+  </si>
+  <si>
+    <t>Composite_Substance_Squared</t>
+  </si>
   <si>
     <t>Subject</t>
   </si>
@@ -141,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -161,11 +170,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -179,6 +189,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,13 +209,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -212,10 +223,10 @@
         <v>1003</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.025251410929404028</v>
+        <v>-0.025251410947445929</v>
       </c>
       <c r="C2" s="0">
-        <v>0.00063763375392562524</v>
+        <v>0.00063763375483679211</v>
       </c>
     </row>
     <row r="3">
@@ -223,10 +234,10 @@
         <v>1006</v>
       </c>
       <c r="B3" s="0">
-        <v>-1.1559669634373129</v>
+        <v>-1.1559669634553549</v>
       </c>
       <c r="C3" s="0">
-        <v>1.3362596205584818</v>
+        <v>1.3362596206001938</v>
       </c>
     </row>
     <row r="4">
@@ -234,10 +245,10 @@
         <v>1009</v>
       </c>
       <c r="B4" s="0">
-        <v>-1.1559669634373129</v>
+        <v>-1.1559669634553549</v>
       </c>
       <c r="C4" s="0">
-        <v>1.3362596205584818</v>
+        <v>1.3362596206001938</v>
       </c>
     </row>
     <row r="5">
@@ -245,10 +256,10 @@
         <v>1010</v>
       </c>
       <c r="B5" s="0">
-        <v>3.3682365226919173</v>
+        <v>3.3682365226794921</v>
       </c>
       <c r="C5" s="0">
-        <v>11.345017272795738</v>
+        <v>11.345017272712036</v>
       </c>
     </row>
     <row r="6">
@@ -256,10 +267,10 @@
         <v>1011</v>
       </c>
       <c r="B6" s="0">
-        <v>-1.4386458515642901</v>
+        <v>-1.4386458515823322</v>
       </c>
       <c r="C6" s="0">
-        <v>2.0697018862231418</v>
+        <v>2.0697018862750536</v>
       </c>
     </row>
     <row r="7">
@@ -267,10 +278,10 @@
         <v>1012</v>
       </c>
       <c r="B7" s="0">
-        <v>-1.4386458515642901</v>
+        <v>-1.4386458515823322</v>
       </c>
       <c r="C7" s="0">
-        <v>2.0697018862231418</v>
+        <v>2.0697018862750536</v>
       </c>
     </row>
     <row r="8">
@@ -278,10 +289,10 @@
         <v>1015</v>
       </c>
       <c r="B8" s="0">
-        <v>2.2361796940864131</v>
+        <v>2.2361796940683716</v>
       </c>
       <c r="C8" s="0">
-        <v>5.0004996242444042</v>
+        <v>5.0004996241637159</v>
       </c>
     </row>
     <row r="9">
@@ -289,10 +300,10 @@
         <v>1016</v>
       </c>
       <c r="B9" s="0">
-        <v>-1.1559669634373129</v>
+        <v>-1.1559669634553549</v>
       </c>
       <c r="C9" s="0">
-        <v>1.3362596205584818</v>
+        <v>1.3362596206001938</v>
       </c>
     </row>
     <row r="10">
@@ -300,10 +311,10 @@
         <v>1019</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.025251410929404028</v>
+        <v>-0.025251410947445929</v>
       </c>
       <c r="C10" s="0">
-        <v>0.00063763375392562524</v>
+        <v>0.00063763375483679211</v>
       </c>
     </row>
     <row r="11">
@@ -311,10 +322,10 @@
         <v>1021</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.59060918718335853</v>
+        <v>-0.59060918720140032</v>
       </c>
       <c r="C11" s="0">
-        <v>0.34881921198538746</v>
+        <v>0.34881921200669874</v>
       </c>
     </row>
     <row r="12">
@@ -322,10 +333,10 @@
         <v>1242</v>
       </c>
       <c r="B12" s="0">
-        <v>1.388143029705482</v>
+        <v>1.38814302968744</v>
       </c>
       <c r="C12" s="0">
-        <v>1.9269410709199146</v>
+        <v>1.9269410708698249</v>
       </c>
     </row>
     <row r="13">
@@ -333,10 +344,10 @@
         <v>1244</v>
       </c>
       <c r="B13" s="0">
-        <v>1.6018287909227085</v>
+        <v>1.6018287909116877</v>
       </c>
       <c r="C13" s="0">
-        <v>2.565855475428906</v>
+        <v>2.5658554753935996</v>
       </c>
     </row>
     <row r="14">
@@ -344,10 +355,10 @@
         <v>1245</v>
       </c>
       <c r="B14" s="0">
-        <v>0.11675867118288191</v>
+        <v>0.11675867116764856</v>
       </c>
       <c r="C14" s="0">
-        <v>0.013632587296392339</v>
+        <v>0.013632587292835086</v>
       </c>
     </row>
     <row r="15">
@@ -355,10 +366,10 @@
         <v>1247</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.59060918718335853</v>
+        <v>-0.59060918720140032</v>
       </c>
       <c r="C15" s="0">
-        <v>0.34881921198538746</v>
+        <v>0.34881921200669874</v>
       </c>
     </row>
     <row r="16">
@@ -366,10 +377,10 @@
         <v>1248</v>
       </c>
       <c r="B16" s="0">
-        <v>-1.4386458515642901</v>
+        <v>-1.4386458515823322</v>
       </c>
       <c r="C16" s="0">
-        <v>2.0697018862231418</v>
+        <v>2.0697018862750536</v>
       </c>
     </row>
     <row r="17">
@@ -377,10 +388,10 @@
         <v>1249</v>
       </c>
       <c r="B17" s="0">
-        <v>0.046424268175536271</v>
+        <v>0.046424268161707166</v>
       </c>
       <c r="C17" s="0">
-        <v>0.00215521267563411</v>
+        <v>0.0021552126743500976</v>
       </c>
     </row>
     <row r="18">
@@ -388,10 +399,10 @@
         <v>1253</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.59060918718335853</v>
+        <v>-0.59060918720140032</v>
       </c>
       <c r="C18" s="0">
-        <v>0.34881921198538746</v>
+        <v>0.34881921200669874</v>
       </c>
     </row>
     <row r="19">
@@ -399,10 +410,10 @@
         <v>1255</v>
       </c>
       <c r="B19" s="0">
-        <v>0.25742747719757314</v>
+        <v>0.25742747717953124</v>
       </c>
       <c r="C19" s="0">
-        <v>0.066268906016307041</v>
+        <v>0.066268906007018083</v>
       </c>
     </row>
     <row r="20">
@@ -410,10 +421,10 @@
         <v>1276</v>
       </c>
       <c r="B20" s="0">
-        <v>-1.4386458515642901</v>
+        <v>-1.4386458515823322</v>
       </c>
       <c r="C20" s="0">
-        <v>2.0697018862231418</v>
+        <v>2.0697018862750536</v>
       </c>
     </row>
     <row r="21">
@@ -421,10 +432,10 @@
         <v>1282</v>
       </c>
       <c r="B21" s="0">
-        <v>0.75379212654177663</v>
+        <v>0.75379212653075611</v>
       </c>
       <c r="C21" s="0">
-        <v>0.56820257003637376</v>
+        <v>0.56820257001975938</v>
       </c>
     </row>
     <row r="22">
@@ -432,10 +443,10 @@
         <v>1286</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.8732880753103357</v>
+        <v>-0.8732880753283776</v>
       </c>
       <c r="C22" s="0">
-        <v>0.76263206247923054</v>
+        <v>0.76263206251074211</v>
       </c>
     </row>
     <row r="23">
@@ -443,10 +454,10 @@
         <v>1294</v>
       </c>
       <c r="B23" s="0">
-        <v>-1.1559669634373129</v>
+        <v>-1.1559669634553549</v>
       </c>
       <c r="C23" s="0">
-        <v>1.3362596205584818</v>
+        <v>1.3362596206001938</v>
       </c>
     </row>
     <row r="24">
@@ -454,10 +465,10 @@
         <v>1300</v>
       </c>
       <c r="B24" s="0">
-        <v>-1.1559669634373129</v>
+        <v>-1.1559669634553549</v>
       </c>
       <c r="C24" s="0">
-        <v>1.3362596205584818</v>
+        <v>1.3362596206001938</v>
       </c>
     </row>
     <row r="25">
@@ -465,10 +476,10 @@
         <v>1301</v>
       </c>
       <c r="B25" s="0">
-        <v>-0.025251410929404028</v>
+        <v>-0.025251410947445929</v>
       </c>
       <c r="C25" s="0">
-        <v>0.00063763375392562524</v>
+        <v>0.00063763375483679211</v>
       </c>
     </row>
     <row r="26">
@@ -476,10 +487,10 @@
         <v>1302</v>
       </c>
       <c r="B26" s="0">
-        <v>1.1068054176760995</v>
+        <v>1.1068054176636746</v>
       </c>
       <c r="C26" s="0">
-        <v>1.225018232597165</v>
+        <v>1.225018232569661</v>
       </c>
     </row>
     <row r="27">
@@ -487,10 +498,10 @@
         <v>1303</v>
       </c>
       <c r="B27" s="0">
-        <v>2.9448888285502486</v>
+        <v>2.9448888287742112</v>
       </c>
       <c r="C27" s="0">
-        <v>8.6723702125200557</v>
+        <v>8.6723702138391463</v>
       </c>
     </row>
     <row r="28">
@@ -498,10 +509,10 @@
         <v>3101</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.59060918718335853</v>
+        <v>-0.59060918720140032</v>
       </c>
       <c r="C28" s="0">
-        <v>0.34881921198538746</v>
+        <v>0.34881921200669874</v>
       </c>
     </row>
     <row r="29">
@@ -509,10 +520,10 @@
         <v>3116</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.8732880753103357</v>
+        <v>-0.8732880753283776</v>
       </c>
       <c r="C29" s="0">
-        <v>0.76263206247923054</v>
+        <v>0.76263206251074211</v>
       </c>
     </row>
     <row r="30">
@@ -520,10 +531,10 @@
         <v>3122</v>
       </c>
       <c r="B30" s="0">
-        <v>-1.4386458515642901</v>
+        <v>-1.4386458515823322</v>
       </c>
       <c r="C30" s="0">
-        <v>2.0697018862231418</v>
+        <v>2.0697018862750536</v>
       </c>
     </row>
     <row r="31">
@@ -531,10 +542,10 @@
         <v>3125</v>
       </c>
       <c r="B31" s="0">
-        <v>0.046424268175536271</v>
+        <v>0.046424268161707166</v>
       </c>
       <c r="C31" s="0">
-        <v>0.00215521267563411</v>
+        <v>0.0021552126743500976</v>
       </c>
     </row>
     <row r="32">
@@ -542,10 +553,10 @@
         <v>3143</v>
       </c>
       <c r="B32" s="0">
-        <v>6.9807753219208442</v>
+        <v>6.9807753217099471</v>
       </c>
       <c r="C32" s="0">
-        <v>48.731224095139062</v>
+        <v>48.731224092194616</v>
       </c>
     </row>
     <row r="33">
@@ -553,10 +564,10 @@
         <v>3152</v>
       </c>
       <c r="B33" s="0">
-        <v>-0.025251410929404028</v>
+        <v>-0.025251410947445929</v>
       </c>
       <c r="C33" s="0">
-        <v>0.00063763375392562524</v>
+        <v>0.00063763375483679211</v>
       </c>
     </row>
     <row r="34">
@@ -564,10 +575,10 @@
         <v>3164</v>
       </c>
       <c r="B34" s="0">
-        <v>2.5918755374159259</v>
+        <v>2.5918755376412927</v>
       </c>
       <c r="C34" s="0">
-        <v>6.7178188014550946</v>
+        <v>6.7178188026233405</v>
       </c>
     </row>
     <row r="35">
@@ -575,10 +586,10 @@
         <v>3166</v>
       </c>
       <c r="B35" s="0">
-        <v>-0.44859910507107253</v>
+        <v>-0.4485991050863059</v>
       </c>
       <c r="C35" s="0">
-        <v>0.20124115707056717</v>
+        <v>0.20124115708423454</v>
       </c>
     </row>
     <row r="36">
@@ -586,10 +597,10 @@
         <v>3167</v>
       </c>
       <c r="B36" s="0">
-        <v>-1.1559669634373129</v>
+        <v>-1.1559669634553549</v>
       </c>
       <c r="C36" s="0">
-        <v>1.3362596205584818</v>
+        <v>1.3362596206001938</v>
       </c>
     </row>
     <row r="37">
@@ -597,10 +608,10 @@
         <v>3173</v>
       </c>
       <c r="B37" s="0">
-        <v>-1.1559669634373129</v>
+        <v>-1.1559669634553549</v>
       </c>
       <c r="C37" s="0">
-        <v>1.3362596205584818</v>
+        <v>1.3362596206001938</v>
       </c>
     </row>
     <row r="38">
@@ -608,10 +619,10 @@
         <v>3175</v>
       </c>
       <c r="B38" s="0">
-        <v>-1.4386458515642901</v>
+        <v>-1.4386458515823322</v>
       </c>
       <c r="C38" s="0">
-        <v>2.0697018862231418</v>
+        <v>2.0697018862750536</v>
       </c>
     </row>
     <row r="39">
@@ -619,10 +630,10 @@
         <v>3176</v>
       </c>
       <c r="B39" s="0">
-        <v>0.61178204442949069</v>
+        <v>0.61178204441566164</v>
       </c>
       <c r="C39" s="0">
-        <v>0.37427726988632731</v>
+        <v>0.37427726986940657</v>
       </c>
     </row>
     <row r="40">
@@ -630,10 +641,10 @@
         <v>3189</v>
       </c>
       <c r="B40" s="0">
-        <v>0.33044443240010812</v>
+        <v>0.33044443262547518</v>
       </c>
       <c r="C40" s="0">
-        <v>0.10919352290422962</v>
+        <v>0.1091935230531722</v>
       </c>
     </row>
     <row r="41">
@@ -641,10 +652,10 @@
         <v>3190</v>
       </c>
       <c r="B41" s="0">
-        <v>-0.5189335080784182</v>
+        <v>-0.51893350809224725</v>
       </c>
       <c r="C41" s="0">
-        <v>0.26929198580657371</v>
+        <v>0.26929198582092645</v>
       </c>
     </row>
     <row r="42">
@@ -652,10 +663,10 @@
         <v>3199</v>
       </c>
       <c r="B42" s="0">
-        <v>-0.59060918718335853</v>
+        <v>-0.59060918720140032</v>
       </c>
       <c r="C42" s="0">
-        <v>0.34881921198538746</v>
+        <v>0.34881921200669874</v>
       </c>
     </row>
     <row r="43">
@@ -663,10 +674,10 @@
         <v>3200</v>
       </c>
       <c r="B43" s="0">
-        <v>-1.4386458515642901</v>
+        <v>-1.4386458515823322</v>
       </c>
       <c r="C43" s="0">
-        <v>2.0697018862231418</v>
+        <v>2.0697018862750536</v>
       </c>
     </row>
     <row r="44">
@@ -674,10 +685,10 @@
         <v>3206</v>
       </c>
       <c r="B44" s="0">
-        <v>2.1685278432742576</v>
+        <v>2.1685278435024329</v>
       </c>
       <c r="C44" s="0">
-        <v>4.7025130070557033</v>
+        <v>4.7025130080453117</v>
       </c>
     </row>
     <row r="45">
@@ -685,10 +696,10 @@
         <v>3210</v>
       </c>
       <c r="B45" s="0">
-        <v>-1.1559669634373129</v>
+        <v>-1.1559669634553549</v>
       </c>
       <c r="C45" s="0">
-        <v>1.3362596205584818</v>
+        <v>1.3362596206001938</v>
       </c>
     </row>
     <row r="46">
@@ -696,10 +707,10 @@
         <v>3212</v>
       </c>
       <c r="B46" s="0">
-        <v>-1.4386458515642901</v>
+        <v>-1.4386458515823322</v>
       </c>
       <c r="C46" s="0">
-        <v>2.0697018862231418</v>
+        <v>2.0697018862750536</v>
       </c>
     </row>
     <row r="47">
@@ -707,10 +718,10 @@
         <v>3220</v>
       </c>
       <c r="B47" s="0">
-        <v>-0.025251410929404028</v>
+        <v>-0.025251410947445929</v>
       </c>
       <c r="C47" s="0">
-        <v>0.00063763375392562524</v>
+        <v>0.00063763375483679211</v>
       </c>
     </row>
   </sheetData>

--- a/UGDG/Behavioral_Analysis/covariates/Composite_Substance.xlsx
+++ b/UGDG/Behavioral_Analysis/covariates/Composite_Substance.xlsx
@@ -13,7 +13,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Composite_Substance</t>
+  </si>
+  <si>
+    <t>Composite_Substance_Squared</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Composite_Substance</t>
+  </si>
+  <si>
+    <t>Composite_Substance_Squared</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Composite_Substance</t>
+  </si>
+  <si>
+    <t>Composite_Substance_Squared</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Composite_Substance</t>
+  </si>
+  <si>
+    <t>Composite_Substance_Squared</t>
+  </si>
   <si>
     <t>Subject</t>
   </si>
@@ -159,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -181,11 +217,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -201,6 +241,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -220,13 +264,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">

--- a/UGDG/Behavioral_Analysis/covariates/Composite_Substance.xlsx
+++ b/UGDG/Behavioral_Analysis/covariates/Composite_Substance.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Composite_Substance</t>
+  </si>
+  <si>
+    <t>Composite_Substance_Squared</t>
+  </si>
   <si>
     <t>Subject</t>
   </si>
@@ -195,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -221,11 +230,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -245,6 +255,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -264,13 +275,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
